--- a/biology/Médecine/Mésoderme/Mésoderme.xlsx
+++ b/biology/Médecine/Mésoderme/Mésoderme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9soderme</t>
+          <t>Mésoderme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mésoderme (ou mésoblaste), par opposition à l'endoderme et à l'ectoderme, est le feuillet cellulaire intermédiaire de l'embryon des métazoaires triploblastiques qui se met en place au moment de la gastrulation. Seuls les Bilatériens le possèdent, les porifères (éponges) et cnidaires (méduses, coraux, hydres, anémones de mer, etc.) en sont dépourvus. Ils possèdent en revanche une mésoglée, qui n'est pas un feuillet embryonnaire mais un tissu pauvre en cellules avec une matrice extracellulaire importante.
 Les cellules qui dérivent du mésoderme forment en tout ou partie les organes internes à l'exception du système nerveux (dérivant de l'ectoderme) et des organes des systèmes digestif et respiratoire (issus de l'endoderme). Ainsi, chez les Cordés, le mésoderme donne naissance :
